--- a/data/144/SCB/FM0001FinansBKv.xlsx
+++ b/data/144/SCB/FM0001FinansBKv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <x:si>
     <x:t>Balance of Payments. Financial account. Transactions, SEK billions by type of investment, item and quarter</x:t>
   </x:si>
@@ -496,6 +496,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>net</x:t>
   </x:si>
   <x:si>
@@ -520,7 +523,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211206 09:30</x:t>
+    <x:t>20220304 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -532,15 +535,6 @@
     <x:t>Contact:</x:t>
   </x:si>
   <x:si>
-    <x:t>Elisabet Göransson, Statistics Sweden</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> +46 010-479 44 91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>elisabet.goransson@scb.se</x:t>
-  </x:si>
-  <x:si>
     <x:t>Linda Nihlwing, Statistics Sweden</x:t>
   </x:si>
   <x:si>
@@ -548,6 +542,24 @@
   </x:si>
   <x:si>
     <x:t>linda.nihlwing@scb.se</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isak Werner, Statistics Sweden</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> +46 010-479 41 48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isak.werner@scb.se</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Viktor Penna, Statistics Sweden</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> +46 010-479 41 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>viktor.penna@scb.se</x:t>
   </x:si>
   <x:si>
     <x:t>Copyright</x:t>
@@ -580,7 +592,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0.0"/>
+    <x:numFmt numFmtId="165" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -634,41 +646,38 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -679,7 +688,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -962,28 +971,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FE49"/>
+  <x:dimension ref="A1:FF53"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="22.840625" style="0" customWidth="1"/>
-    <x:col min="3" max="161" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="162" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:161">
+    <x:row r="1" spans="1:162">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:161">
+    <x:row r="3" spans="1:162">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1461,13 +1468,16 @@
       <x:c r="FE3" s="2" t="s">
         <x:v>159</x:v>
       </x:c>
+      <x:c r="FF3" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:161">
+    <x:row r="4" spans="1:162">
       <x:c r="A4" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>-1.5</x:v>
@@ -1902,54 +1912,57 @@
         <x:v>181.6</x:v>
       </x:c>
       <x:c r="EQ4" s="3" t="n">
-        <x:v>-32.1</x:v>
+        <x:v>-32.5</x:v>
       </x:c>
       <x:c r="ER4" s="3" t="n">
-        <x:v>21.8</x:v>
+        <x:v>21.6</x:v>
       </x:c>
       <x:c r="ES4" s="3" t="n">
-        <x:v>-76.3</x:v>
+        <x:v>-76.1</x:v>
       </x:c>
       <x:c r="ET4" s="3" t="n">
-        <x:v>160.5</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="EU4" s="3" t="n">
-        <x:v>-67.5</x:v>
+        <x:v>-67.7</x:v>
       </x:c>
       <x:c r="EV4" s="3" t="n">
-        <x:v>60</x:v>
+        <x:v>62.6</x:v>
       </x:c>
       <x:c r="EW4" s="3" t="n">
-        <x:v>131.4</x:v>
+        <x:v>130.2</x:v>
       </x:c>
       <x:c r="EX4" s="3" t="n">
-        <x:v>101.7</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="EY4" s="3" t="n">
-        <x:v>63</x:v>
+        <x:v>64.6</x:v>
       </x:c>
       <x:c r="EZ4" s="3" t="n">
-        <x:v>83.3</x:v>
+        <x:v>86.6</x:v>
       </x:c>
       <x:c r="FA4" s="3" t="n">
-        <x:v>-11.1</x:v>
+        <x:v>-43.9</x:v>
       </x:c>
       <x:c r="FB4" s="3" t="n">
-        <x:v>126.6</x:v>
+        <x:v>76.4</x:v>
       </x:c>
       <x:c r="FC4" s="3" t="n">
-        <x:v>96.1</x:v>
+        <x:v>79.7</x:v>
       </x:c>
       <x:c r="FD4" s="3" t="n">
-        <x:v>211.9</x:v>
+        <x:v>191.7</x:v>
       </x:c>
       <x:c r="FE4" s="3" t="n">
-        <x:v>43.3</x:v>
+        <x:v>43.4</x:v>
+      </x:c>
+      <x:c r="FF4" s="3" t="n">
+        <x:v>-197.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:161">
+    <x:row r="5" spans="1:162">
       <x:c r="B5" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>0.7</x:v>
@@ -2417,21 +2430,24 @@
         <x:v>-21.4</x:v>
       </x:c>
       <x:c r="FB5" s="3" t="n">
+        <x:v>27.5</x:v>
+      </x:c>
+      <x:c r="FC5" s="3" t="n">
+        <x:v>-30.7</x:v>
+      </x:c>
+      <x:c r="FD5" s="3" t="n">
+        <x:v>-51.9</x:v>
+      </x:c>
+      <x:c r="FE5" s="3" t="n">
+        <x:v>-3.8</x:v>
+      </x:c>
+      <x:c r="FF5" s="3" t="n">
         <x:v>29.6</x:v>
       </x:c>
-      <x:c r="FC5" s="3" t="n">
-        <x:v>-39.3</x:v>
-      </x:c>
-      <x:c r="FD5" s="3" t="n">
-        <x:v>-48.4</x:v>
-      </x:c>
-      <x:c r="FE5" s="3" t="n">
-        <x:v>-5.8</x:v>
-      </x:c>
     </x:row>
-    <x:row r="6" spans="1:161">
+    <x:row r="6" spans="1:162">
       <x:c r="B6" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>0</x:v>
@@ -2878,45 +2894,48 @@
         <x:v>131.7</x:v>
       </x:c>
       <x:c r="EU6" s="3" t="n">
-        <x:v>-12.7</x:v>
+        <x:v>-12</x:v>
       </x:c>
       <x:c r="EV6" s="3" t="n">
-        <x:v>43.2</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="EW6" s="3" t="n">
-        <x:v>10.3</x:v>
+        <x:v>11.1</x:v>
       </x:c>
       <x:c r="EX6" s="3" t="n">
-        <x:v>64.7</x:v>
+        <x:v>65.5</x:v>
       </x:c>
       <x:c r="EY6" s="3" t="n">
-        <x:v>-103</x:v>
+        <x:v>-102.1</x:v>
       </x:c>
       <x:c r="EZ6" s="3" t="n">
-        <x:v>36.1</x:v>
+        <x:v>39.2</x:v>
       </x:c>
       <x:c r="FA6" s="3" t="n">
-        <x:v>55.3</x:v>
+        <x:v>56.1</x:v>
       </x:c>
       <x:c r="FB6" s="3" t="n">
-        <x:v>116.1</x:v>
+        <x:v>116.8</x:v>
       </x:c>
       <x:c r="FC6" s="3" t="n">
-        <x:v>175.8</x:v>
+        <x:v>152.1</x:v>
       </x:c>
       <x:c r="FD6" s="3" t="n">
-        <x:v>146.5</x:v>
+        <x:v>129.8</x:v>
       </x:c>
       <x:c r="FE6" s="3" t="n">
-        <x:v>-35.6</x:v>
+        <x:v>-37.5</x:v>
+      </x:c>
+      <x:c r="FF6" s="3" t="n">
+        <x:v>160</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:161">
+    <x:row r="7" spans="1:162">
       <x:c r="A7" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>1.7</x:v>
@@ -3351,54 +3370,57 @@
         <x:v>-360.3</x:v>
       </x:c>
       <x:c r="EQ7" s="3" t="n">
-        <x:v>-257.2</x:v>
+        <x:v>-257.6</x:v>
       </x:c>
       <x:c r="ER7" s="3" t="n">
-        <x:v>-411.1</x:v>
+        <x:v>-411.3</x:v>
       </x:c>
       <x:c r="ES7" s="3" t="n">
-        <x:v>-501.9</x:v>
+        <x:v>-501.7</x:v>
       </x:c>
       <x:c r="ET7" s="3" t="n">
-        <x:v>-178.7</x:v>
+        <x:v>-177.2</x:v>
       </x:c>
       <x:c r="EU7" s="3" t="n">
-        <x:v>-98.7</x:v>
+        <x:v>-98.6</x:v>
       </x:c>
       <x:c r="EV7" s="3" t="n">
-        <x:v>-308.5</x:v>
+        <x:v>-305.5</x:v>
       </x:c>
       <x:c r="EW7" s="3" t="n">
-        <x:v>-5.6</x:v>
+        <x:v>-6.3</x:v>
       </x:c>
       <x:c r="EX7" s="3" t="n">
-        <x:v>-510.6</x:v>
+        <x:v>-509.9</x:v>
       </x:c>
       <x:c r="EY7" s="3" t="n">
-        <x:v>9.6</x:v>
+        <x:v>11.6</x:v>
       </x:c>
       <x:c r="EZ7" s="3" t="n">
-        <x:v>-484.3</x:v>
+        <x:v>-480.6</x:v>
       </x:c>
       <x:c r="FA7" s="3" t="n">
-        <x:v>-323.4</x:v>
+        <x:v>-322</x:v>
       </x:c>
       <x:c r="FB7" s="3" t="n">
-        <x:v>-528</x:v>
+        <x:v>-528.7</x:v>
       </x:c>
       <x:c r="FC7" s="3" t="n">
-        <x:v>-21.5</x:v>
+        <x:v>-19.5</x:v>
       </x:c>
       <x:c r="FD7" s="3" t="n">
-        <x:v>-65.1</x:v>
+        <x:v>-71.4</x:v>
       </x:c>
       <x:c r="FE7" s="3" t="n">
-        <x:v>-116.2</x:v>
+        <x:v>-131.7</x:v>
+      </x:c>
+      <x:c r="FF7" s="3" t="n">
+        <x:v>-1077.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:161">
+    <x:row r="8" spans="1:162">
       <x:c r="B8" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>1.3</x:v>
@@ -3866,21 +3888,24 @@
         <x:v>15.6</x:v>
       </x:c>
       <x:c r="FB8" s="3" t="n">
-        <x:v>-17</x:v>
+        <x:v>-19</x:v>
       </x:c>
       <x:c r="FC8" s="3" t="n">
-        <x:v>34.9</x:v>
+        <x:v>35.4</x:v>
       </x:c>
       <x:c r="FD8" s="3" t="n">
-        <x:v>30.6</x:v>
+        <x:v>25.2</x:v>
       </x:c>
       <x:c r="FE8" s="3" t="n">
-        <x:v>24.1</x:v>
+        <x:v>17.9</x:v>
+      </x:c>
+      <x:c r="FF8" s="3" t="n">
+        <x:v>96.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:161">
+    <x:row r="9" spans="1:162">
       <x:c r="B9" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>0.1</x:v>
@@ -4327,45 +4352,48 @@
         <x:v>19.2</x:v>
       </x:c>
       <x:c r="EU9" s="3" t="n">
-        <x:v>8.3</x:v>
+        <x:v>9.3</x:v>
       </x:c>
       <x:c r="EV9" s="3" t="n">
-        <x:v>73.1</x:v>
+        <x:v>76.3</x:v>
       </x:c>
       <x:c r="EW9" s="3" t="n">
-        <x:v>6.8</x:v>
+        <x:v>8.1</x:v>
       </x:c>
       <x:c r="EX9" s="3" t="n">
-        <x:v>-3.2</x:v>
+        <x:v>-2</x:v>
       </x:c>
       <x:c r="EY9" s="3" t="n">
-        <x:v>-140.8</x:v>
+        <x:v>-139.5</x:v>
       </x:c>
       <x:c r="EZ9" s="3" t="n">
-        <x:v>52.8</x:v>
+        <x:v>56.2</x:v>
       </x:c>
       <x:c r="FA9" s="3" t="n">
-        <x:v>136.5</x:v>
+        <x:v>137.6</x:v>
       </x:c>
       <x:c r="FB9" s="3" t="n">
-        <x:v>108.7</x:v>
+        <x:v>109.9</x:v>
       </x:c>
       <x:c r="FC9" s="3" t="n">
-        <x:v>165.5</x:v>
+        <x:v>167.5</x:v>
       </x:c>
       <x:c r="FD9" s="3" t="n">
-        <x:v>146.4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="FE9" s="3" t="n">
-        <x:v>28.8</x:v>
+        <x:v>28.1</x:v>
+      </x:c>
+      <x:c r="FF9" s="3" t="n">
+        <x:v>-70.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:161">
+    <x:row r="10" spans="1:162">
       <x:c r="A10" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>3.2</x:v>
@@ -4812,42 +4840,45 @@
         <x:v>-339.2</x:v>
       </x:c>
       <x:c r="EU10" s="3" t="n">
-        <x:v>-31.3</x:v>
+        <x:v>-30.9</x:v>
       </x:c>
       <x:c r="EV10" s="3" t="n">
-        <x:v>-368.5</x:v>
+        <x:v>-368.1</x:v>
       </x:c>
       <x:c r="EW10" s="3" t="n">
-        <x:v>-137</x:v>
+        <x:v>-136.5</x:v>
       </x:c>
       <x:c r="EX10" s="3" t="n">
-        <x:v>-612.3</x:v>
+        <x:v>-611.9</x:v>
       </x:c>
       <x:c r="EY10" s="3" t="n">
-        <x:v>-53.4</x:v>
+        <x:v>-53</x:v>
       </x:c>
       <x:c r="EZ10" s="3" t="n">
-        <x:v>-567.6</x:v>
+        <x:v>-567.2</x:v>
       </x:c>
       <x:c r="FA10" s="3" t="n">
-        <x:v>-312.2</x:v>
+        <x:v>-278.1</x:v>
       </x:c>
       <x:c r="FB10" s="3" t="n">
-        <x:v>-654.6</x:v>
+        <x:v>-605.1</x:v>
       </x:c>
       <x:c r="FC10" s="3" t="n">
-        <x:v>-117.6</x:v>
+        <x:v>-99.2</x:v>
       </x:c>
       <x:c r="FD10" s="3" t="n">
-        <x:v>-277</x:v>
+        <x:v>-263.1</x:v>
       </x:c>
       <x:c r="FE10" s="3" t="n">
-        <x:v>-159.5</x:v>
+        <x:v>-175.1</x:v>
+      </x:c>
+      <x:c r="FF10" s="3" t="n">
+        <x:v>-879.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:161">
+    <x:row r="11" spans="1:162">
       <x:c r="B11" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>0.7</x:v>
@@ -5318,18 +5349,21 @@
         <x:v>-46.5</x:v>
       </x:c>
       <x:c r="FC11" s="3" t="n">
-        <x:v>74.3</x:v>
+        <x:v>66.1</x:v>
       </x:c>
       <x:c r="FD11" s="3" t="n">
-        <x:v>79</x:v>
+        <x:v>77.1</x:v>
       </x:c>
       <x:c r="FE11" s="3" t="n">
-        <x:v>29.9</x:v>
+        <x:v>21.6</x:v>
+      </x:c>
+      <x:c r="FF11" s="3" t="n">
+        <x:v>66.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:161">
+    <x:row r="12" spans="1:162">
       <x:c r="B12" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>0</x:v>
@@ -5776,149 +5810,161 @@
         <x:v>-112.4</x:v>
       </x:c>
       <x:c r="EU12" s="3" t="n">
-        <x:v>21</x:v>
+        <x:v>21.3</x:v>
       </x:c>
       <x:c r="EV12" s="3" t="n">
-        <x:v>29.9</x:v>
+        <x:v>30.3</x:v>
       </x:c>
       <x:c r="EW12" s="3" t="n">
-        <x:v>-3.5</x:v>
+        <x:v>-3</x:v>
       </x:c>
       <x:c r="EX12" s="3" t="n">
-        <x:v>-67.9</x:v>
+        <x:v>-67.5</x:v>
       </x:c>
       <x:c r="EY12" s="3" t="n">
-        <x:v>-37.7</x:v>
+        <x:v>-37.3</x:v>
       </x:c>
       <x:c r="EZ12" s="3" t="n">
-        <x:v>16.6</x:v>
+        <x:v>17.1</x:v>
       </x:c>
       <x:c r="FA12" s="3" t="n">
-        <x:v>81.1</x:v>
+        <x:v>81.5</x:v>
       </x:c>
       <x:c r="FB12" s="3" t="n">
-        <x:v>-7.4</x:v>
+        <x:v>-6.8</x:v>
       </x:c>
       <x:c r="FC12" s="3" t="n">
-        <x:v>-10.3</x:v>
+        <x:v>15.3</x:v>
       </x:c>
       <x:c r="FD12" s="3" t="n">
-        <x:v>-0.1</x:v>
+        <x:v>16.2</x:v>
       </x:c>
       <x:c r="FE12" s="3" t="n">
-        <x:v>64.4</x:v>
+        <x:v>65.6</x:v>
+      </x:c>
+      <x:c r="FF12" s="3" t="n">
+        <x:v>-230.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:161">
+    <x:row r="14" spans="1:162">
       <x:c r="A14" s="4" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:161">
+    <x:row r="16" spans="1:162">
       <x:c r="A16" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:161">
+    <x:row r="17" spans="1:162">
       <x:c r="A17" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:161">
+    <x:row r="19" spans="1:162">
       <x:c r="A19" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:161">
+    <x:row r="20" spans="1:162">
       <x:c r="A20" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:161">
+    <x:row r="22" spans="1:162">
       <x:c r="A22" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:161">
+    <x:row r="23" spans="1:162">
       <x:c r="A23" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:161">
+    <x:row r="24" spans="1:162">
       <x:c r="A24" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:161">
+    <x:row r="25" spans="1:162">
       <x:c r="A25" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:161">
-      <x:c r="A26" s="0" t="s"/>
+    <x:row r="27" spans="1:162">
+      <x:c r="A27" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
     </x:row>
-    <x:row r="27" spans="1:161">
-      <x:c r="A27" s="0" t="s">
-        <x:v>175</x:v>
+    <x:row r="28" spans="1:162">
+      <x:c r="A28" s="0" t="s">
+        <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:161">
-      <x:c r="A28" s="0" t="s">
-        <x:v>176</x:v>
+    <x:row r="29" spans="1:162">
+      <x:c r="A29" s="0" t="s">
+        <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:161">
-      <x:c r="A29" s="0" t="s">
-        <x:v>177</x:v>
+    <x:row r="31" spans="1:162">
+      <x:c r="A31" s="0" t="s">
+        <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:161">
-      <x:c r="A30" s="0" t="s"/>
+    <x:row r="32" spans="1:162">
+      <x:c r="A32" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
     </x:row>
-    <x:row r="31" spans="1:161">
-      <x:c r="A31" s="0" t="s"/>
+    <x:row r="33" spans="1:162">
+      <x:c r="A33" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
     </x:row>
-    <x:row r="33" spans="1:161">
-      <x:c r="A33" s="0" t="s">
-        <x:v>178</x:v>
+    <x:row r="37" spans="1:162">
+      <x:c r="A37" s="0" t="s">
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:161">
-      <x:c r="A35" s="0" t="s">
-        <x:v>179</x:v>
+    <x:row r="39" spans="1:162">
+      <x:c r="A39" s="0" t="s">
+        <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:161">
-      <x:c r="A36" s="0" t="s">
-        <x:v>180</x:v>
+    <x:row r="40" spans="1:162">
+      <x:c r="A40" s="0" t="s">
+        <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:161">
-      <x:c r="A38" s="0" t="s">
-        <x:v>181</x:v>
+    <x:row r="42" spans="1:162">
+      <x:c r="A42" s="0" t="s">
+        <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:161">
-      <x:c r="A45" s="0" t="s">
-        <x:v>182</x:v>
+    <x:row r="49" spans="1:162">
+      <x:c r="A49" s="0" t="s">
+        <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:161">
-      <x:c r="A46" s="0" t="s">
-        <x:v>183</x:v>
+    <x:row r="50" spans="1:162">
+      <x:c r="A50" s="0" t="s">
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:161">
-      <x:c r="A48" s="0" t="s">
-        <x:v>184</x:v>
+    <x:row r="52" spans="1:162">
+      <x:c r="A52" s="0" t="s">
+        <x:v>188</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:161">
-      <x:c r="A49" s="0" t="s">
-        <x:v>185</x:v>
+    <x:row r="53" spans="1:162">
+      <x:c r="A53" s="0" t="s">
+        <x:v>189</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A14:FF14"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
